--- a/Excel/casMedian2.xlsx
+++ b/Excel/casMedian2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable\Documents\GitHub\PEPSI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C392C22-6820-4BA4-B029-9D1A048C7497}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8314456E-BAF9-4D4F-8179-178C4FCD8E14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7440" xr2:uid="{5172E695-FFD0-4A81-8853-8CB156196831}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="302">
   <si>
     <t>1215.38</t>
   </si>
@@ -1420,15 +1420,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8926E1A2-95A1-4361-8542-D3980DDE6A70}">
   <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W12" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" topLeftCell="T16" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC20:AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="27" max="27" width="13.453125" customWidth="1"/>
-    <col min="29" max="29" width="14.08984375" customWidth="1"/>
+    <col min="29" max="29" width="19" customWidth="1"/>
     <col min="30" max="30" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3907,6 +3907,13 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
+      <c r="AC31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD31">
+        <f>AVERAGE(AB19:AB30)</f>
+        <v>1.0087000002743947</v>
+      </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -6755,12 +6762,12 @@
     </row>
     <row r="65" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AB65" s="11">
-        <f>(AVERAGE(AC34:AC45)-SUM(AE49:AE60))</f>
-        <v>0.18073200100538256</v>
+        <f>(AD31-AF61)</f>
+        <v>9.1932001663930007E-2</v>
       </c>
       <c r="AD65">
         <f>$AD$3 * (1+MAX(0,AB65))</f>
-        <v>118.07320010053826</v>
+        <v>109.193200166393</v>
       </c>
       <c r="AI65" s="9"/>
     </row>

--- a/Excel/casMedian2.xlsx
+++ b/Excel/casMedian2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable\Documents\GitHub\PEPSI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC18E7D-4BE4-4C65-BCBF-3D2886F732E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794ADCCB-766B-4532-8E6A-044A24B12D97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7440" xr2:uid="{5172E695-FFD0-4A81-8853-8CB156196831}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Calculs" sheetId="2" r:id="rId1"/>
     <sheet name="Données brutes" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="309">
   <si>
     <t>1215.38</t>
   </si>
@@ -953,6 +950,15 @@
   </si>
   <si>
     <t>Cas médian 2 : Fond Mementis</t>
+  </si>
+  <si>
+    <t>Taux de capitatlisation</t>
+  </si>
+  <si>
+    <t>Payoff actualisé</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,6 +1132,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1147,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1185,6 +1218,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3389,142 +3437,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Calculs"/>
-      <sheetName val="Données brutes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="AB19">
-            <v>1.1036000008231848</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AB20">
-            <v>1.1116000000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AB21">
-            <v>1.1064000000000005</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AB22">
-            <v>1.0995999998353634</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AB23">
-            <v>0.96079999999999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AB24">
-            <v>0.93</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AB25">
-            <v>0.88839999983536311</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AB26">
-            <v>0.90960000000000019</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AB27">
-            <v>0.89439999999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AB28">
-            <v>0.9184000003292736</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AB29">
-            <v>0.88719999934145233</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AB30">
-            <v>0.91359999967072625</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="AE49">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="AE50">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="AE51">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="AE52">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="AE53">
-            <v>3.3599999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="AE54">
-            <v>2.0160000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="AE55">
-            <v>1.2096000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="AE56">
-            <v>7.2575999999999995E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="AE57">
-            <v>4.3545599999999995E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="AE58">
-            <v>2.6127359999999992E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="AE59">
-            <v>1.5676415999999996E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="AE60">
-            <v>9.405849599999998E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -3824,7 +3736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8926E1A2-95A1-4361-8542-D3980DDE6A70}">
   <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI68" sqref="AI68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5096,7 +5010,7 @@
         <v>1.0756000008231847</v>
       </c>
       <c r="AD19" s="18">
-        <f>AB19-1</f>
+        <f t="shared" ref="AD19:AD30" si="1">AB19-1</f>
         <v>7.5600000823184743E-2</v>
       </c>
       <c r="AF19" s="7">
@@ -5109,67 +5023,67 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:Q22" si="1">(B5)/B$3</f>
+        <f t="shared" ref="B20:Q22" si="2">(B5)/B$3</f>
         <v>1.0099999999999998</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.03</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.05</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.05</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.07</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.06</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.01</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1300000000000001</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1400000000000001</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
       <c r="R20">
@@ -5213,7 +5127,7 @@
         <v>1.0656000008231847</v>
       </c>
       <c r="AD20" s="18">
-        <f>AB20-1</f>
+        <f t="shared" si="1"/>
         <v>6.5600000823184734E-2</v>
       </c>
     </row>
@@ -5222,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="C21">
@@ -5326,7 +5240,7 @@
         <v>1.0739999998353633</v>
       </c>
       <c r="AD21" s="18">
-        <f>AB21-1</f>
+        <f t="shared" si="1"/>
         <v>7.3999999835363317E-2</v>
       </c>
     </row>
@@ -5335,103 +5249,103 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
-        <v>1.0699999999999998</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:Z22" si="2">(C7)/C$3</f>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>1.03</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>1.01</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>1.08</v>
-      </c>
-      <c r="I22">
         <f t="shared" si="2"/>
         <v>1.0699999999999998</v>
       </c>
+      <c r="C22">
+        <f t="shared" ref="C22:Z22" si="3">(C7)/C$3</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>1.03</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>1.01</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>1.08</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>1.0699999999999998</v>
+      </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2100000000000002</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.22</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74</v>
       </c>
       <c r="R22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="S22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="T22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0699999876522326</v>
       </c>
       <c r="U22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="V22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.08</v>
       </c>
       <c r="W22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="X22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="AB22">
@@ -5439,7 +5353,7 @@
         <v>1.0859999995060894</v>
       </c>
       <c r="AD22" s="18">
-        <f>AB22-1</f>
+        <f t="shared" si="1"/>
         <v>8.5999999506089386E-2</v>
       </c>
     </row>
@@ -5448,111 +5362,111 @@
         <v>5</v>
       </c>
       <c r="B23" s="16">
-        <f t="shared" ref="B23:Z23" si="3">(B8)/B$3</f>
+        <f t="shared" ref="B23:Z23" si="4">(B8)/B$3</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.07</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.05</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.07</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.05</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.04</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.05</v>
       </c>
       <c r="K23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.03</v>
       </c>
       <c r="O23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="R23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0199999999999998</v>
       </c>
       <c r="S23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="U23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1300000000000001</v>
       </c>
       <c r="V23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="X23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="Z23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="AB23" s="16">
-        <f t="shared" ref="AB23:AB30" si="4">AVERAGE(B23:Z23)</f>
+        <f t="shared" ref="AB23:AB30" si="5">AVERAGE(B23:Z23)</f>
         <v>1.0648</v>
       </c>
       <c r="AD23" s="18">
-        <f>AB23-1</f>
+        <f t="shared" si="1"/>
         <v>6.4799999999999969E-2</v>
       </c>
     </row>
@@ -5561,111 +5475,111 @@
         <v>6</v>
       </c>
       <c r="B24" s="16">
-        <f t="shared" ref="B24:Z24" si="5">(B9)/B$3</f>
+        <f t="shared" ref="B24:Z24" si="6">(B9)/B$3</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="C24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1900000000000002</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.04</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="R24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="S24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.04</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0699999876522326</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.04</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.02</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.04</v>
+      </c>
+      <c r="Z24" s="16">
+        <f t="shared" si="6"/>
+        <v>1.01</v>
+      </c>
+      <c r="AB24" s="16">
         <f t="shared" si="5"/>
-        <v>1.07</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.08</v>
-      </c>
-      <c r="E24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.1900000000000002</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.06</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.0699999999999998</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.06</v>
-      </c>
-      <c r="K24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.05</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="M24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.04</v>
-      </c>
-      <c r="Q24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.0799999999999998</v>
-      </c>
-      <c r="R24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="S24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.04</v>
-      </c>
-      <c r="T24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.0699999876522326</v>
-      </c>
-      <c r="U24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.04</v>
-      </c>
-      <c r="V24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.02</v>
-      </c>
-      <c r="W24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.08</v>
-      </c>
-      <c r="X24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Y24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.04</v>
-      </c>
-      <c r="Z24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.01</v>
-      </c>
-      <c r="AB24" s="16">
-        <f t="shared" si="4"/>
         <v>1.0815999995060892</v>
       </c>
       <c r="AD24" s="18">
-        <f>AB24-1</f>
+        <f t="shared" si="1"/>
         <v>8.1599999506089205E-2</v>
       </c>
     </row>
@@ -5674,111 +5588,111 @@
         <v>7</v>
       </c>
       <c r="B25" s="16">
-        <f t="shared" ref="B25:Z25" si="6">(B10)/B$3</f>
+        <f t="shared" ref="B25:Z25" si="7">(B10)/B$3</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.05</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.03</v>
       </c>
       <c r="E25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.05</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="H25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="J25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.07</v>
       </c>
       <c r="K25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.08</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="O25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="Q25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.03</v>
       </c>
       <c r="R25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.08</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0500000205796125</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.08</v>
       </c>
       <c r="W25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="X25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.06</v>
       </c>
       <c r="Y25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0799999999999998</v>
       </c>
       <c r="AB25" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0748000008231844</v>
       </c>
       <c r="AD25" s="18">
-        <f>AB25-1</f>
+        <f t="shared" si="1"/>
         <v>7.4800000823184387E-2</v>
       </c>
     </row>
@@ -5787,111 +5701,111 @@
         <v>8</v>
       </c>
       <c r="B26" s="16">
-        <f t="shared" ref="B26:Z26" si="7">(B11)/B$3</f>
+        <f t="shared" ref="B26:Z26" si="8">(B11)/B$3</f>
         <v>1.0999999999999999</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0599999999999998</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.03</v>
       </c>
       <c r="K26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="O26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0799999999999998</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="R26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="S26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="V26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="W26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="X26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="Y26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.03</v>
       </c>
       <c r="Z26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0908000000000002</v>
       </c>
       <c r="AD26" s="18">
-        <f>AB26-1</f>
+        <f t="shared" si="1"/>
         <v>9.0800000000000214E-2</v>
       </c>
     </row>
@@ -5900,111 +5814,111 @@
         <v>9</v>
       </c>
       <c r="B27" s="16">
-        <f t="shared" ref="B27:Z27" si="8">(B12)/B$3</f>
+        <f t="shared" ref="B27:Z27" si="9">(B12)/B$3</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="H27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1300000000000001</v>
       </c>
       <c r="I27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="K27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1099999999999999</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="R27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.05</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.04</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="V27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1099999999999999</v>
       </c>
       <c r="W27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="X27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="Y27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="Z27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0599999999999998</v>
       </c>
       <c r="AB27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1044</v>
       </c>
       <c r="AD27" s="18">
-        <f>AB27-1</f>
+        <f t="shared" si="1"/>
         <v>0.10440000000000005</v>
       </c>
     </row>
@@ -6013,111 +5927,111 @@
         <v>10</v>
       </c>
       <c r="B28" s="16">
-        <f t="shared" ref="B28:Z28" si="9">(B13)/B$3</f>
+        <f t="shared" ref="B28:Z28" si="10">(B13)/B$3</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="C28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="E28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1099999999999999</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.08</v>
       </c>
       <c r="I28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="J28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
       <c r="K28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="L28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1099999999999999</v>
       </c>
       <c r="M28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1300000000000001</v>
       </c>
       <c r="O28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="P28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="R28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="S28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1099999999999999</v>
       </c>
       <c r="T28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0899999958840776</v>
       </c>
       <c r="U28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="V28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="W28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="X28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="Y28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="Z28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="AB28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1039999998353629</v>
       </c>
       <c r="AD28" s="18">
-        <f>AB28-1</f>
+        <f t="shared" si="1"/>
         <v>0.1039999998353629</v>
       </c>
     </row>
@@ -6126,111 +6040,111 @@
         <v>11</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" ref="B29:Z29" si="10">(B14)/B$3</f>
+        <f t="shared" ref="B29:Z29" si="11">(B14)/B$3</f>
         <v>1.0499999999999998</v>
       </c>
       <c r="C29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="E29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.04</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="H29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.07</v>
       </c>
       <c r="I29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.06</v>
       </c>
       <c r="J29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1400000000000001</v>
       </c>
       <c r="K29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1300000000000001</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="O29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="P29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="Q29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="R29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="S29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1899999958840775</v>
       </c>
       <c r="U29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1400000000000001</v>
       </c>
       <c r="V29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.19</v>
       </c>
       <c r="W29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="X29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="Y29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="Z29" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0799999999999998</v>
       </c>
       <c r="AB29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1139999998353629</v>
       </c>
       <c r="AD29" s="18">
-        <f>AB29-1</f>
+        <f t="shared" si="1"/>
         <v>0.11399999983536291</v>
       </c>
     </row>
@@ -6239,111 +6153,111 @@
         <v>12</v>
       </c>
       <c r="B30" s="16">
-        <f t="shared" ref="B30:Z30" si="11">(B15)/B$3</f>
+        <f t="shared" ref="B30:Z30" si="12">(B15)/B$3</f>
         <v>1.1999999999999997</v>
       </c>
       <c r="C30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="E30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="F30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="H30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.19</v>
       </c>
       <c r="I30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.18</v>
       </c>
       <c r="J30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.17</v>
       </c>
       <c r="K30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1800000000000002</v>
       </c>
       <c r="L30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1900000000000002</v>
       </c>
       <c r="M30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="N30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.05</v>
       </c>
       <c r="O30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="P30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="Q30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1400000000000001</v>
       </c>
       <c r="R30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.19</v>
       </c>
       <c r="S30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="T30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="V30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="W30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.05</v>
       </c>
       <c r="X30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="Y30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="Z30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AB30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1384000000000001</v>
       </c>
       <c r="AD30" s="18">
-        <f>AB30-1</f>
+        <f t="shared" si="1"/>
         <v>0.13840000000000008</v>
       </c>
     </row>
@@ -6369,7 +6283,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -6377,112 +6291,112 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>1</v>
       </c>
       <c r="B34">
-        <f>(B4-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B34:Z34" si="13">(B4-B$3*$AF$19)/B$3</f>
         <v>0.10999999999999985</v>
       </c>
       <c r="C34">
-        <f>(C4-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="13"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="D34">
-        <f>(D4-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="13"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E34">
-        <f>(E4-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="13"/>
         <v>6.0000000000000046E-2</v>
       </c>
       <c r="F34">
-        <f>(F4-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="13"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="G34">
-        <f>(G4-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="13"/>
         <v>7.0000000000000021E-2</v>
       </c>
       <c r="H34">
-        <f>(H4-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="13"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I34">
-        <f>(I4-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="13"/>
         <v>0.1199999999999999</v>
       </c>
       <c r="J34">
-        <f>(J4-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="13"/>
         <v>8.0000000000000113E-2</v>
       </c>
       <c r="K34">
-        <f>(K4-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="13"/>
         <v>6.0000000000000109E-2</v>
       </c>
       <c r="L34">
-        <f>(L4-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="13"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M34">
-        <f>(M4-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="13"/>
         <v>6.9999999999999937E-2</v>
       </c>
       <c r="N34">
-        <f>(N4-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="13"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="O34">
-        <f>(O4-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="13"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="P34">
-        <f>(P4-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="13"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="Q34">
-        <f>(Q4-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="13"/>
         <v>3.9999999999999945E-2</v>
       </c>
       <c r="R34">
-        <f>(R4-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="13"/>
         <v>-4.9999999999999989E-2</v>
       </c>
       <c r="S34">
-        <f>(S4-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="13"/>
         <v>-5.0000000000000024E-2</v>
       </c>
       <c r="T34">
-        <f>(T4-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="13"/>
         <v>0.25000002057961251</v>
       </c>
       <c r="U34">
-        <f>(U4-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="13"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="V34">
-        <f>(V4-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="13"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W34">
-        <f>(W4-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="13"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X34">
-        <f>(X4-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="13"/>
         <v>0.10000000000000014</v>
       </c>
       <c r="Y34">
-        <f>(Y4-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="13"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z34">
-        <f>(Z4-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="13"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB34" s="7">
-        <f t="shared" ref="AB34:AB45" si="12">AVERAGE(B34:Z34)</f>
+        <f t="shared" ref="AB34:AB45" si="14">AVERAGE(B34:Z34)</f>
         <v>7.5600000823184493E-2</v>
       </c>
       <c r="AC34">
@@ -6490,1242 +6404,1242 @@
         <v>1.0756000008231845</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2</v>
       </c>
       <c r="B35">
-        <f>(B5-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B35:Z35" si="15">(B5-B$3*$AF$19)/B$3</f>
         <v>9.999999999999851E-3</v>
       </c>
       <c r="C35">
-        <f>(C5-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="15"/>
         <v>2.9999999999999968E-2</v>
       </c>
       <c r="D35">
-        <f>(D5-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="15"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E35">
-        <f>(E5-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="15"/>
         <v>0.14999999999999994</v>
       </c>
       <c r="F35">
-        <f>(F5-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="15"/>
         <v>0.11999999999999997</v>
       </c>
       <c r="G35">
-        <f>(G5-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="15"/>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H35">
-        <f>(H5-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="15"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I35">
-        <f>(I5-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="15"/>
         <v>5.9999999999999949E-2</v>
       </c>
       <c r="J35">
-        <f>(J5-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="15"/>
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="K35">
-        <f>(K5-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="15"/>
         <v>1.0000000000000044E-2</v>
       </c>
       <c r="L35">
-        <f>(L5-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="15"/>
         <v>0.12000000000000002</v>
       </c>
       <c r="M35">
-        <f>(M5-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="15"/>
         <v>0.13000000000000003</v>
       </c>
       <c r="N35">
-        <f>(N5-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="15"/>
         <v>0.1400000000000001</v>
       </c>
       <c r="O35">
-        <f>(O5-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="15"/>
         <v>4.999999999999992E-2</v>
       </c>
       <c r="P35">
-        <f>(P5-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="15"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="Q35">
-        <f>(Q5-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="15"/>
         <v>1.9999999999999973E-2</v>
       </c>
       <c r="R35">
-        <f>(R5-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="15"/>
         <v>5.9999999999999824E-2</v>
       </c>
       <c r="S35">
-        <f>(S5-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="15"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="T35">
-        <f>(T5-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="15"/>
         <v>5.0000020579612517E-2</v>
       </c>
       <c r="U35">
-        <f>(U5-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="15"/>
         <v>1.0000000000000024E-2</v>
       </c>
       <c r="V35">
-        <f>(V5-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="15"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W35">
-        <f>(W5-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="15"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="X35">
-        <f>(X5-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="15"/>
         <v>5.0000000000000176E-2</v>
       </c>
       <c r="Y35">
-        <f>(Y5-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="15"/>
         <v>4.0000000000000015E-2</v>
       </c>
       <c r="Z35">
-        <f>(Z5-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="15"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5600000823184512E-2</v>
       </c>
       <c r="AC35">
-        <f t="shared" ref="AC35:AC44" si="13">1+AB35</f>
+        <f t="shared" ref="AC35:AC44" si="16">1+AB35</f>
         <v>1.0656000008231845</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>3</v>
       </c>
       <c r="B36">
-        <f>(B6-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B36:Z36" si="17">(B6-B$3*$AF$19)/B$3</f>
         <v>0.11999999999999988</v>
       </c>
       <c r="C36">
-        <f>(C6-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="17"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="D36">
-        <f>(D6-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="17"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E36">
-        <f>(E6-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="17"/>
         <v>3.0000000000000023E-2</v>
       </c>
       <c r="F36">
-        <f>(F6-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
       <c r="G36">
-        <f>(G6-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="17"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="H36">
-        <f>(H6-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="17"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I36">
-        <f>(I6-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="17"/>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="J36">
-        <f>(J6-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="17"/>
         <v>7.0000000000000118E-2</v>
       </c>
       <c r="K36">
-        <f>(K6-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="17"/>
         <v>7.0000000000000145E-2</v>
       </c>
       <c r="L36">
-        <f>(L6-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="17"/>
         <v>6.0000000000000012E-2</v>
       </c>
       <c r="M36">
-        <f>(M6-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="17"/>
         <v>-0.25999999999999995</v>
       </c>
       <c r="N36">
-        <f>(N6-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="17"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="O36">
-        <f>(O6-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="17"/>
         <v>5.9999999999999956E-2</v>
       </c>
       <c r="P36">
-        <f>(P6-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="17"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="Q36">
-        <f>(Q6-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="17"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="R36">
-        <f>(R6-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="17"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S36">
-        <f>(S6-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="17"/>
         <v>6.000000000000006E-2</v>
       </c>
       <c r="T36">
-        <f>(T6-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="17"/>
         <v>8.999999588407756E-2</v>
       </c>
       <c r="U36">
-        <f>(U6-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="17"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="V36">
-        <f>(V6-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="17"/>
         <v>0.11999999999999997</v>
       </c>
       <c r="W36">
-        <f>(W6-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="17"/>
         <v>0.12999999999999995</v>
       </c>
       <c r="X36">
-        <f>(X6-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="17"/>
         <v>0.19000000000000014</v>
       </c>
       <c r="Y36">
-        <f>(Y6-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="17"/>
         <v>0.17999999999999997</v>
       </c>
       <c r="Z36">
-        <f>(Z6-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="17"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="AB36" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.3999999835363109E-2</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0739999998353631</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>4</v>
       </c>
       <c r="B37">
-        <f>(B7-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B37:Z37" si="18">(B7-B$3*$AF$19)/B$3</f>
         <v>6.9999999999999882E-2</v>
       </c>
       <c r="C37">
-        <f>(C7-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="18"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="D37">
-        <f>(D7-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="18"/>
         <v>0.10000000000000007</v>
       </c>
       <c r="E37">
-        <f>(E7-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="18"/>
         <v>3.0000000000000023E-2</v>
       </c>
       <c r="F37">
-        <f>(F7-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="18"/>
         <v>9.9999999999999187E-3</v>
       </c>
       <c r="G37">
-        <f>(G7-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="18"/>
         <v>0.15000000000000008</v>
       </c>
       <c r="H37">
-        <f>(H7-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="18"/>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I37">
-        <f>(I7-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="18"/>
         <v>6.9999999999999854E-2</v>
       </c>
       <c r="J37">
-        <f>(J7-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="18"/>
         <v>0.10000000000000012</v>
       </c>
       <c r="K37">
-        <f>(K7-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="18"/>
         <v>0.21000000000000013</v>
       </c>
       <c r="L37">
-        <f>(L7-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="18"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="M37">
-        <f>(M7-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="18"/>
         <v>0.22000000000000006</v>
       </c>
       <c r="N37">
-        <f>(N7-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="18"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="O37">
-        <f>(O7-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P37">
-        <f>(P7-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="18"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="Q37">
-        <f>(Q7-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="18"/>
         <v>-0.26</v>
       </c>
       <c r="R37">
-        <f>(R7-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S37">
-        <f>(S7-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="18"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="T37">
-        <f>(T7-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="18"/>
         <v>6.9999987652232518E-2</v>
       </c>
       <c r="U37">
-        <f>(U7-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="18"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="V37">
-        <f>(V7-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="18"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W37">
-        <f>(W7-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="18"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="X37">
-        <f>(X7-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="18"/>
         <v>0.10000000000000014</v>
       </c>
       <c r="Y37">
-        <f>(Y7-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="18"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z37">
-        <f>(Z7-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="18"/>
         <v>0.12000000000000001</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.5999999506089303E-2</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0859999995060894</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>5</v>
       </c>
       <c r="B38">
-        <f>(B8-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B38:Z38" si="19">(B8-B$3*$AF$19)/B$3</f>
         <v>0.1499999999999998</v>
       </c>
       <c r="C38">
-        <f>(C8-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="19"/>
         <v>6.9999999999999965E-2</v>
       </c>
       <c r="D38">
-        <f>(D8-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="19"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E38">
-        <f>(E8-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="19"/>
         <v>0.11999999999999993</v>
       </c>
       <c r="F38">
-        <f>(F8-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>(G8-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="19"/>
         <v>7.0000000000000021E-2</v>
       </c>
       <c r="H38">
-        <f>(H8-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="19"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I38">
-        <f>(I8-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="19"/>
         <v>3.9999999999999966E-2</v>
       </c>
       <c r="J38">
-        <f>(J8-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="19"/>
         <v>5.0000000000000121E-2</v>
       </c>
       <c r="K38">
-        <f>(K8-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="19"/>
         <v>6.0000000000000109E-2</v>
       </c>
       <c r="L38">
-        <f>(L8-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="19"/>
         <v>6.0000000000000012E-2</v>
       </c>
       <c r="M38">
-        <f>(M8-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="19"/>
         <v>6.0000000000000081E-2</v>
       </c>
       <c r="N38">
-        <f>(N8-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="19"/>
         <v>3.0000000000000079E-2</v>
       </c>
       <c r="O38">
-        <f>(O8-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="19"/>
         <v>5.9999999999999956E-2</v>
       </c>
       <c r="P38">
-        <f>(P8-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f>(Q8-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="19"/>
         <v>0.09</v>
       </c>
       <c r="R38">
-        <f>(R8-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="19"/>
         <v>1.9999999999999876E-2</v>
       </c>
       <c r="S38">
-        <f>(S8-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T38">
-        <f>(T8-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="U38">
-        <f>(U8-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="19"/>
         <v>0.13000000000000012</v>
       </c>
       <c r="V38">
-        <f>(V8-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W38">
-        <f>(W8-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="19"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="X38">
-        <f>(X8-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f>(Y8-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="19"/>
         <v>0.11</v>
       </c>
       <c r="Z38">
-        <f>(Z8-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="19"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="AB38" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0648</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>6</v>
       </c>
       <c r="B39">
-        <f>(B9-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B39:Z39" si="20">(B9-B$3*$AF$19)/B$3</f>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C39">
-        <f>(C9-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="20"/>
         <v>6.9999999999999965E-2</v>
       </c>
       <c r="D39">
-        <f>(D9-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="20"/>
         <v>8.0000000000000057E-2</v>
       </c>
       <c r="E39">
-        <f>(E9-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="20"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F39">
-        <f>(F9-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="20"/>
         <v>8.9999999999999941E-2</v>
       </c>
       <c r="G39">
-        <f>(G9-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="20"/>
         <v>0.19000000000000017</v>
       </c>
       <c r="H39">
-        <f>(H9-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="20"/>
         <v>6.0000000000000026E-2</v>
       </c>
       <c r="I39">
-        <f>(I9-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="20"/>
         <v>6.9999999999999854E-2</v>
       </c>
       <c r="J39">
-        <f>(J9-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="20"/>
         <v>6.0000000000000116E-2</v>
       </c>
       <c r="K39">
-        <f>(K9-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="20"/>
         <v>5.0000000000000065E-2</v>
       </c>
       <c r="L39">
-        <f>(L9-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="20"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="M39">
-        <f>(M9-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="20"/>
         <v>0.10000000000000007</v>
       </c>
       <c r="N39">
-        <f>(N9-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="20"/>
         <v>0.20000000000000007</v>
       </c>
       <c r="O39">
-        <f>(O9-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="20"/>
         <v>0.14999999999999988</v>
       </c>
       <c r="P39">
-        <f>(P9-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="20"/>
         <v>4.0000000000000112E-2</v>
       </c>
       <c r="Q39">
-        <f>(Q9-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="20"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R39">
-        <f>(R9-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="20"/>
         <v>0.11999999999999986</v>
       </c>
       <c r="S39">
-        <f>(S9-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="20"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="T39">
-        <f>(T9-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="20"/>
         <v>6.9999987652232518E-2</v>
       </c>
       <c r="U39">
-        <f>(U9-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="20"/>
         <v>4.0000000000000098E-2</v>
       </c>
       <c r="V39">
-        <f>(V9-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="20"/>
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="W39">
-        <f>(W9-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="20"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="X39">
-        <f>(X9-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="20"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y39">
-        <f>(Y9-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="20"/>
         <v>4.0000000000000015E-2</v>
       </c>
       <c r="Z39">
-        <f>(Z9-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="20"/>
         <v>9.9999999999999273E-3</v>
       </c>
       <c r="AB39" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.1599999506089288E-2</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0815999995060892</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>7</v>
       </c>
       <c r="B40">
-        <f>(B10-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B40:Z40" si="21">(B10-B$3*$AF$19)/B$3</f>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C40">
-        <f>(C10-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="21"/>
         <v>5.0000000000000024E-2</v>
       </c>
       <c r="D40">
-        <f>(D10-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="21"/>
         <v>3.0000000000000023E-2</v>
       </c>
       <c r="E40">
-        <f>(E10-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="21"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F40">
-        <f>(F10-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="21"/>
         <v>0.05</v>
       </c>
       <c r="G40">
-        <f>(G10-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="21"/>
         <v>0.12000000000000016</v>
       </c>
       <c r="H40">
-        <f>(H10-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>(I10-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="21"/>
         <v>0.1199999999999999</v>
       </c>
       <c r="J40">
-        <f>(J10-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="21"/>
         <v>7.0000000000000118E-2</v>
       </c>
       <c r="K40">
-        <f>(K10-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="21"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L40">
-        <f>(L10-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="21"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="M40">
-        <f>(M10-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="21"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="N40">
-        <f>(N10-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="21"/>
         <v>0.12000000000000015</v>
       </c>
       <c r="O40">
-        <f>(O10-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="21"/>
         <v>8.9999999999999927E-2</v>
       </c>
       <c r="P40">
-        <f>(P10-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="21"/>
         <v>9.0000000000000038E-2</v>
       </c>
       <c r="Q40">
-        <f>(Q10-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="21"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="R40">
-        <f>(R10-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="21"/>
         <v>0.12999999999999989</v>
       </c>
       <c r="S40">
-        <f>(S10-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="21"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="T40">
-        <f>(T10-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="21"/>
         <v>5.0000020579612517E-2</v>
       </c>
       <c r="U40">
-        <f>(U10-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f>(V10-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="21"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W40">
-        <f>(W10-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="21"/>
         <v>0.15999999999999989</v>
       </c>
       <c r="X40">
-        <f>(X10-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="21"/>
         <v>6.000000000000013E-2</v>
       </c>
       <c r="Y40">
-        <f>(Y10-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f>(Z10-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="21"/>
         <v>7.9999999999999946E-2</v>
       </c>
       <c r="AB40" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.4800000823184498E-2</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0748000008231844</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>8</v>
       </c>
       <c r="B41">
-        <f>(B11-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B41:Z41" si="22">(B11-B$3*$AF$19)/B$3</f>
         <v>9.9999999999999811E-2</v>
       </c>
       <c r="C41">
-        <f>(C11-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="22"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="D41">
-        <f>(D11-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="22"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="E41">
-        <f>(E11-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="22"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="F41">
-        <f>(F11-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="22"/>
         <v>5.9999999999999921E-2</v>
       </c>
       <c r="G41">
-        <f>(G11-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="22"/>
         <v>0.12000000000000016</v>
       </c>
       <c r="H41">
-        <f>(H11-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="22"/>
         <v>0.15</v>
       </c>
       <c r="I41">
-        <f>(I11-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="22"/>
         <v>0.12999999999999998</v>
       </c>
       <c r="J41">
-        <f>(J11-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="22"/>
         <v>2.9999999999999995E-2</v>
       </c>
       <c r="K41">
-        <f>(K11-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="22"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="L41">
-        <f>(L11-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="22"/>
         <v>6.0000000000000012E-2</v>
       </c>
       <c r="M41">
-        <f>(M11-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="22"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="N41">
-        <f>(N11-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="22"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="O41">
-        <f>(O11-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="22"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="P41">
-        <f>(P11-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="22"/>
         <v>0.11999999999999991</v>
       </c>
       <c r="Q41">
-        <f>(Q11-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="22"/>
         <v>9.9999999999999853E-2</v>
       </c>
       <c r="R41">
-        <f>(R11-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="22"/>
         <v>8.9999999999999941E-2</v>
       </c>
       <c r="S41">
-        <f>(S11-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="22"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="T41">
-        <f>(T11-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="22"/>
         <v>0.11999999999999997</v>
       </c>
       <c r="U41">
-        <f>(U11-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="22"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="V41">
-        <f>(V11-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="22"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W41">
-        <f>(W11-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="22"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X41">
-        <f>(X11-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="22"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y41">
-        <f>(Y11-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="22"/>
         <v>2.9999999999999971E-2</v>
       </c>
       <c r="Z41">
-        <f>(Z11-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="22"/>
         <v>8.9999999999999872E-2</v>
       </c>
       <c r="AB41" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.0799999999999964E-2</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0908</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>9</v>
       </c>
       <c r="B42">
-        <f>(B12-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B42:Z42" si="23">(B12-B$3*$AF$19)/B$3</f>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C42">
-        <f>(C12-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="23"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="D42">
-        <f>(D12-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="23"/>
         <v>0.10000000000000007</v>
       </c>
       <c r="E42">
-        <f>(E12-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="23"/>
         <v>8.99999999999999E-2</v>
       </c>
       <c r="F42">
-        <f>(F12-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="23"/>
         <v>0.11999999999999997</v>
       </c>
       <c r="G42">
-        <f>(G12-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="23"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="H42">
-        <f>(H12-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="23"/>
         <v>0.13000000000000003</v>
       </c>
       <c r="I42">
-        <f>(I12-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="23"/>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="J42">
-        <f>(J12-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
       <c r="K42">
-        <f>(K12-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="23"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="L42">
-        <f>(L12-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="23"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="M42">
-        <f>(M12-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="23"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="N42">
-        <f>(N12-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="23"/>
         <v>0.11</v>
       </c>
       <c r="O42">
-        <f>(O12-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="23"/>
         <v>8.9999999999999927E-2</v>
       </c>
       <c r="P42">
-        <f>(P12-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="23"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="Q42">
-        <f>(Q12-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="23"/>
         <v>0.12999999999999992</v>
       </c>
       <c r="R42">
-        <f>(R12-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="23"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S42">
-        <f>(S12-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="23"/>
         <v>5.0000000000000024E-2</v>
       </c>
       <c r="T42">
-        <f>(T12-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="23"/>
         <v>4.0000000000000091E-2</v>
       </c>
       <c r="U42">
-        <f>(U12-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="23"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="V42">
-        <f>(V12-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="23"/>
         <v>0.10999999999999997</v>
       </c>
       <c r="W42">
-        <f>(W12-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="23"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="X42">
-        <f>(X12-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="23"/>
         <v>0.16000000000000006</v>
       </c>
       <c r="Y42">
-        <f>(Y12-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="23"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z42">
-        <f>(Z12-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="23"/>
         <v>5.9999999999999915E-2</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10439999999999999</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1044</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>10</v>
       </c>
       <c r="B43">
-        <f>(B13-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B43:Z43" si="24">(B13-B$3*$AF$19)/B$3</f>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C43">
-        <f>(C13-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="24"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="D43">
-        <f>(D13-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="24"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="E43">
-        <f>(E13-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="24"/>
         <v>0.10999999999999997</v>
       </c>
       <c r="F43">
-        <f>(F13-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="24"/>
         <v>0.05</v>
       </c>
       <c r="G43">
-        <f>(G13-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="24"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="H43">
-        <f>(H13-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="24"/>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I43">
-        <f>(I13-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="24"/>
         <v>8.9999999999999844E-2</v>
       </c>
       <c r="J43">
-        <f>(J13-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="24"/>
         <v>5.0000000000000121E-2</v>
       </c>
       <c r="K43">
-        <f>(K13-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="24"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="L43">
-        <f>(L13-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="24"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="M43">
-        <f>(M13-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="24"/>
         <v>0.11000000000000011</v>
       </c>
       <c r="N43">
-        <f>(N13-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="24"/>
         <v>0.13000000000000012</v>
       </c>
       <c r="O43">
-        <f>(O13-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="24"/>
         <v>0.11999999999999991</v>
       </c>
       <c r="P43">
-        <f>(P13-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="24"/>
         <v>0.16</v>
       </c>
       <c r="Q43">
-        <f>(Q13-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="24"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="R43">
-        <f>(R13-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="24"/>
         <v>8.9999999999999941E-2</v>
       </c>
       <c r="S43">
-        <f>(S13-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="24"/>
         <v>0.10999999999999995</v>
       </c>
       <c r="T43">
-        <f>(T13-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="24"/>
         <v>8.999999588407756E-2</v>
       </c>
       <c r="U43">
-        <f>(U13-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="24"/>
         <v>0.11000000000000007</v>
       </c>
       <c r="V43">
-        <f>(V13-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="24"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="W43">
-        <f>(W13-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="24"/>
         <v>0.11999999999999988</v>
       </c>
       <c r="X43">
-        <f>(X13-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="24"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="Y43">
-        <f>(Y13-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="24"/>
         <v>0.15</v>
       </c>
       <c r="Z43">
-        <f>(Z13-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="24"/>
         <v>8.9999999999999872E-2</v>
       </c>
       <c r="AB43" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10399999983536309</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1039999998353631</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>11</v>
       </c>
       <c r="B44">
-        <f>(B14-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B44:Z44" si="25">(B14-B$3*$AF$19)/B$3</f>
         <v>4.9999999999999815E-2</v>
       </c>
       <c r="C44">
-        <f>(C14-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="25"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="D44">
-        <f>(D14-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="25"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="E44">
-        <f>(E14-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="25"/>
         <v>0.11999999999999993</v>
       </c>
       <c r="F44">
-        <f>(F14-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="25"/>
         <v>3.9999999999999945E-2</v>
       </c>
       <c r="G44">
-        <f>(G14-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="25"/>
         <v>0.12000000000000016</v>
       </c>
       <c r="H44">
-        <f>(H14-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="25"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I44">
-        <f>(I14-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="25"/>
         <v>5.9999999999999949E-2</v>
       </c>
       <c r="J44">
-        <f>(J14-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="25"/>
         <v>0.1400000000000001</v>
       </c>
       <c r="K44">
-        <f>(K14-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="25"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="L44">
-        <f>(L14-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="25"/>
         <v>0.12000000000000002</v>
       </c>
       <c r="M44">
-        <f>(M14-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="25"/>
         <v>0.13000000000000003</v>
       </c>
       <c r="N44">
-        <f>(N14-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="25"/>
         <v>0.11</v>
       </c>
       <c r="O44">
-        <f>(O14-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="25"/>
         <v>0.11999999999999991</v>
       </c>
       <c r="P44">
-        <f>(P14-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="25"/>
         <v>0.12999999999999992</v>
       </c>
       <c r="Q44">
-        <f>(Q14-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="25"/>
         <v>0.12999999999999992</v>
       </c>
       <c r="R44">
-        <f>(R14-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="25"/>
         <v>0.12999999999999989</v>
       </c>
       <c r="S44">
-        <f>(S14-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="25"/>
         <v>0.14999999999999994</v>
       </c>
       <c r="T44">
-        <f>(T14-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="25"/>
         <v>0.18999999588407757</v>
       </c>
       <c r="U44">
-        <f>(U14-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="25"/>
         <v>0.14000000000000015</v>
       </c>
       <c r="V44">
-        <f>(V14-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="25"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="W44">
-        <f>(W14-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="25"/>
         <v>0.11999999999999988</v>
       </c>
       <c r="X44">
-        <f>(X14-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="25"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="Y44">
-        <f>(Y14-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="25"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z44">
-        <f>(Z14-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="25"/>
         <v>7.9999999999999946E-2</v>
       </c>
       <c r="AB44" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.11399999983536313</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1139999998353631</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>12</v>
       </c>
       <c r="B45">
-        <f>(B15-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B45:Z45" si="26">(B15-B$3*$AF$19)/B$3</f>
         <v>0.19999999999999982</v>
       </c>
       <c r="C45">
-        <f>(C15-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="26"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="D45">
-        <f>(D15-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="26"/>
         <v>0.12000000000000009</v>
       </c>
       <c r="E45">
-        <f>(E15-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="26"/>
         <v>0.14999999999999994</v>
       </c>
       <c r="F45">
-        <f>(F15-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="G45">
-        <f>(G15-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="26"/>
         <v>0.12000000000000016</v>
       </c>
       <c r="H45">
-        <f>(H15-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="26"/>
         <v>0.19000000000000006</v>
       </c>
       <c r="I45">
-        <f>(I15-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="26"/>
         <v>0.17999999999999985</v>
       </c>
       <c r="J45">
-        <f>(J15-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="26"/>
         <v>0.16999999999999998</v>
       </c>
       <c r="K45">
-        <f>(K15-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="26"/>
         <v>0.18000000000000016</v>
       </c>
       <c r="L45">
-        <f>(L15-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="26"/>
         <v>0.19000000000000009</v>
       </c>
       <c r="M45">
-        <f>(M15-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="26"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="N45">
-        <f>(N15-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="26"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="O45">
-        <f>(O15-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="26"/>
         <v>0.11999999999999991</v>
       </c>
       <c r="P45">
-        <f>(P15-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="26"/>
         <v>0.12999999999999992</v>
       </c>
       <c r="Q45">
-        <f>(Q15-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="26"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="R45">
-        <f>(R15-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="26"/>
         <v>0.18999999999999992</v>
       </c>
       <c r="S45">
-        <f>(S15-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="26"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="T45">
-        <f>(T15-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="U45">
-        <f>(U15-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="26"/>
         <v>0.12000000000000009</v>
       </c>
       <c r="V45">
-        <f>(V15-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="26"/>
         <v>0.12999999999999998</v>
       </c>
       <c r="W45">
-        <f>(W15-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="26"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X45">
-        <f>(X15-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="26"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y45">
-        <f>(Y15-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="Z45">
-        <f>(Z15-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="26"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB45" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.13839999999999997</v>
       </c>
       <c r="AC45">
@@ -7733,7 +7647,7 @@
         <v>1.1383999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="T46" s="1"/>
       <c r="Y46" s="2"/>
       <c r="AC46" s="20" t="s">
@@ -7744,7 +7658,7 @@
         <v>1.0895000000823183</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>244</v>
       </c>
@@ -7753,8 +7667,11 @@
       <c r="AI47" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ47" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>0</v>
       </c>
@@ -7773,8 +7690,11 @@
         <f>-AD3</f>
         <v>-100</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -7783,103 +7703,103 @@
         <v>0.1</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:Z60" si="14">MIN(0.1,C34)</f>
+        <f t="shared" ref="C49:Z60" si="27">MIN(0.1,C34)</f>
         <v>0.1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000046E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.0000000000000021E-2</v>
       </c>
       <c r="H49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="J49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.0000000000000113E-2</v>
       </c>
       <c r="K49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000109E-2</v>
       </c>
       <c r="L49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999937E-2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="O49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="P49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>3.9999999999999945E-2</v>
       </c>
       <c r="R49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>-4.9999999999999989E-2</v>
       </c>
       <c r="S49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>-5.0000000000000024E-2</v>
       </c>
       <c r="T49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="U49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="V49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB49" s="7">
-        <f t="shared" ref="AB49:AB58" si="15">AVERAGE(B49:Z49)</f>
+        <f t="shared" ref="AB49:AB58" si="28">AVERAGE(B49:Z49)</f>
         <v>6.6400000000000028E-2</v>
       </c>
       <c r="AE49">
@@ -7887,483 +7807,495 @@
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG49" s="7">
-        <f t="shared" ref="AG49:AG60" si="16">$AD$3 * AE49</f>
+        <f t="shared" ref="AG49:AG60" si="29">$AD$3 * AE49</f>
         <v>5.6</v>
       </c>
-      <c r="AI49" s="25">
+      <c r="AI49" s="31">
         <f>AE49*AD$3</f>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:Q58" si="17">MIN(0.1,B35)</f>
+        <f t="shared" ref="B50:Q58" si="30">MIN(0.1,B35)</f>
         <v>9.999999999999851E-3</v>
       </c>
       <c r="C50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>2.9999999999999968E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5.9999999999999949E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="K50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1.0000000000000044E-2</v>
       </c>
       <c r="L50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>4.999999999999992E-2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1.9999999999999973E-2</v>
       </c>
       <c r="R50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.9999999999999824E-2</v>
       </c>
       <c r="S50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="T50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000020579612517E-2</v>
       </c>
       <c r="U50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000024E-2</v>
       </c>
       <c r="V50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="X50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000176E-2</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000015E-2</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB50" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>5.9200000823184509E-2</v>
       </c>
       <c r="AE50">
-        <f t="shared" ref="AE50:AE52" si="18">5.6%</f>
+        <f t="shared" ref="AE50:AE52" si="31">5.6%</f>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG50" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.6</v>
       </c>
-      <c r="AI50" s="25">
-        <f t="shared" ref="AI50:AI60" si="19">AE50*AD$3</f>
+      <c r="AI50" s="31">
+        <f t="shared" ref="AI50:AI59" si="32">AE50*AD$3</f>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>3</v>
       </c>
       <c r="B51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
       <c r="C51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>3.0000000000000023E-2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="J51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.0000000000000118E-2</v>
       </c>
       <c r="K51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.0000000000000145E-2</v>
       </c>
       <c r="L51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000012E-2</v>
       </c>
       <c r="M51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>-0.25999999999999995</v>
       </c>
       <c r="N51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="O51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.9999999999999956E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="R51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.000000000000006E-2</v>
       </c>
       <c r="T51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.999999588407756E-2</v>
       </c>
       <c r="U51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="V51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="W51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>6.2399999835363137E-2</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG51" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.6</v>
       </c>
-      <c r="AI51" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI51" s="31">
+        <f t="shared" si="32"/>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>4</v>
       </c>
       <c r="B52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>6.9999999999999882E-2</v>
       </c>
       <c r="C52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>3.0000000000000023E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999187E-3</v>
       </c>
       <c r="G52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999854E-2</v>
       </c>
       <c r="J52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="K52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="L52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="M52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>-0.26</v>
       </c>
       <c r="R52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="T52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999987652232518E-2</v>
       </c>
       <c r="U52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="V52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="AB52" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>7.1199999506089282E-2</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG52" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.6</v>
       </c>
-      <c r="AI52" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI52" s="31">
+        <f t="shared" si="32"/>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>5</v>
       </c>
       <c r="B53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
       <c r="C53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999965E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="F53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.0000000000000021E-2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>3.9999999999999966E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000121E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000109E-2</v>
       </c>
       <c r="L53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000012E-2</v>
       </c>
       <c r="M53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000081E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>3.0000000000000079E-2</v>
       </c>
       <c r="O53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.9999999999999956E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.09</v>
       </c>
       <c r="R53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1.9999999999999876E-2</v>
       </c>
       <c r="S53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="U53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="V53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="X53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="AB53" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>5.6400000000000027E-2</v>
       </c>
       <c r="AE53">
@@ -8371,120 +8303,123 @@
         <v>5.6400000000000027E-2</v>
       </c>
       <c r="AG53" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.6400000000000023</v>
       </c>
-      <c r="AI53" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI53" s="31">
+        <f t="shared" si="32"/>
         <v>5.6400000000000023</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>6</v>
       </c>
       <c r="B54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999965E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.0000000000000057E-2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999941E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="H54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000026E-2</v>
       </c>
       <c r="I54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999999999999854E-2</v>
       </c>
       <c r="J54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000116E-2</v>
       </c>
       <c r="K54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000065E-2</v>
       </c>
       <c r="L54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="M54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="O54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="P54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000112E-2</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="S54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="T54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.9999987652232518E-2</v>
       </c>
       <c r="U54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000098E-2</v>
       </c>
       <c r="V54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="W54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="X54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000015E-2</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999273E-3</v>
       </c>
       <c r="AB54" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>6.9199999506089321E-2</v>
       </c>
       <c r="AE54">
@@ -8492,499 +8427,514 @@
         <v>6.9199999506089321E-2</v>
       </c>
       <c r="AG54" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>6.9199999506089318</v>
       </c>
-      <c r="AI54" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI54" s="31">
+        <f t="shared" si="32"/>
         <v>6.9199999506089318</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>7</v>
       </c>
       <c r="B55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000024E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>3.0000000000000023E-2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.05</v>
       </c>
       <c r="G55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="H55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="J55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.0000000000000118E-2</v>
       </c>
       <c r="K55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="L55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="M55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="N55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="O55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999927E-2</v>
       </c>
       <c r="P55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000038E-2</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="R55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="S55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="T55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000020579612517E-2</v>
       </c>
       <c r="U55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="X55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.000000000000013E-2</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999946E-2</v>
       </c>
       <c r="AB55" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>6.6800000823184505E-2</v>
       </c>
       <c r="AE55">
-        <f t="shared" ref="AE54:AE60" si="20">MAX(0.6*AG54/$AD$3, AB55)</f>
+        <f t="shared" ref="AE55:AE60" si="33">MAX(0.6*AG54/$AD$3, AB55)</f>
         <v>6.6800000823184505E-2</v>
       </c>
       <c r="AG55" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>6.6800000823184504</v>
       </c>
-      <c r="AI55" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI55" s="31">
+        <f t="shared" si="32"/>
         <v>6.6800000823184504</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>8</v>
       </c>
       <c r="B56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>9.9999999999999811E-2</v>
       </c>
       <c r="C56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="D56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.9999999999999921E-2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="H56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="I56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="J56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>2.9999999999999995E-2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="L56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>6.0000000000000012E-2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="N56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="O56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="P56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999853E-2</v>
       </c>
       <c r="R56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999941E-2</v>
       </c>
       <c r="S56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="T56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="U56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="V56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>2.9999999999999971E-2</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999872E-2</v>
       </c>
       <c r="AB56" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>8.4399999999999989E-2</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>8.4399999999999989E-2</v>
       </c>
       <c r="AG56" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>8.44</v>
       </c>
-      <c r="AI56" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI56" s="31">
+        <f t="shared" si="32"/>
         <v>8.44</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>9</v>
       </c>
       <c r="B57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="D57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="E57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.99999999999999E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="G57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="H57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="J57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="K57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="L57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="M57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="O57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999927E-2</v>
       </c>
       <c r="P57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="R57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000024E-2</v>
       </c>
       <c r="T57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000091E-2</v>
       </c>
       <c r="U57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="V57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="W57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="X57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.9999999999999915E-2</v>
       </c>
       <c r="AB57" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>9.2800000000000007E-2</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>9.2800000000000007E-2</v>
       </c>
       <c r="AG57" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>9.2800000000000011</v>
       </c>
-      <c r="AI57" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI57" s="31">
+        <f t="shared" si="32"/>
         <v>9.2800000000000011</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>10</v>
       </c>
       <c r="B58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="D58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="E58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="F58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.05</v>
       </c>
       <c r="G58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999844E-2</v>
       </c>
       <c r="J58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000121E-2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="L58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="M58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="N58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="O58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="P58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="R58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999941E-2</v>
       </c>
       <c r="S58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="T58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.999999588407756E-2</v>
       </c>
       <c r="U58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="V58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="W58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="X58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999872E-2</v>
       </c>
       <c r="AB58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>9.1999999835363125E-2</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>9.1999999835363125E-2</v>
       </c>
       <c r="AG58" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>9.199999983536312</v>
       </c>
-      <c r="AI58" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI58" s="31">
+        <f t="shared" si="32"/>
         <v>9.199999983536312</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>11</v>
       </c>
@@ -8993,119 +8943,122 @@
         <v>4.9999999999999815E-2</v>
       </c>
       <c r="C59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="D59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="E59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="F59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>3.9999999999999945E-2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="H59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>5.9999999999999949E-2</v>
       </c>
       <c r="J59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="K59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="L59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="M59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="N59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="O59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="P59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="R59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="S59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="T59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="U59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="V59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="W59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="X59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999946E-2</v>
       </c>
       <c r="AB59" s="7">
-        <f t="shared" ref="AB59:AB60" si="21">AVERAGE(B59:Z59)</f>
+        <f t="shared" ref="AB59:AB60" si="34">AVERAGE(B59:Z59)</f>
         <v>9.1200000000000031E-2</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>9.1200000000000031E-2</v>
       </c>
       <c r="AG59" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>9.1200000000000028</v>
       </c>
-      <c r="AI59" s="25">
-        <f t="shared" si="19"/>
+      <c r="AI59" s="31">
+        <f t="shared" si="32"/>
         <v>9.1200000000000028</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>12</v>
       </c>
@@ -9114,119 +9067,122 @@
         <v>0.1</v>
       </c>
       <c r="C60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="D60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="I60">
-        <f t="shared" ref="I60:Z60" si="22">MIN(0.1,I45)</f>
+        <f t="shared" ref="I60:Z60" si="35">MIN(0.1,I45)</f>
         <v>0.1</v>
       </c>
       <c r="J60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="K60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="L60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="M60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="N60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="O60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="P60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="R60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="S60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="T60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="U60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="V60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="W60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0.1</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB60" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>9.5200000000000007E-2</v>
       </c>
       <c r="AE60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>9.5200000000000007E-2</v>
       </c>
       <c r="AG60" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>9.5200000000000014</v>
       </c>
-      <c r="AI60" s="25">
+      <c r="AI60" s="31">
         <f>AE60*AD$3+AD68</f>
         <v>113.04000001646368</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="AB61" s="15" t="s">
         <v>296</v>
       </c>
@@ -9247,20 +9203,22 @@
       </c>
       <c r="AI61" s="25"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="AI62" s="8"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="AI63" s="9"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="AB64" s="10" t="s">
         <v>291</v>
       </c>
       <c r="AD64" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="AI64" s="8"/>
+      <c r="AI64" s="27" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="65" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA65" s="16" t="s">
@@ -9275,7 +9233,10 @@
         <f>$AD$3 * (1+MAX(0,AB65))</f>
         <v>100</v>
       </c>
-      <c r="AI65" s="9"/>
+      <c r="AI65" s="28">
+        <f>LN(1+0.042)</f>
+        <v>4.1141943331175213E-2</v>
+      </c>
     </row>
     <row r="66" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA66" s="16" t="s">
@@ -9287,13 +9248,13 @@
       </c>
       <c r="AC66" s="16"/>
       <c r="AD66" s="16">
-        <f t="shared" ref="AD66:AD68" si="23">$AD$3 * (1+MAX(0,AB66))</f>
+        <f t="shared" ref="AD66:AD67" si="36">$AD$3 * (1+MAX(0,AB66))</f>
         <v>120.20000008231848</v>
       </c>
       <c r="AF66" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="AI66" s="8"/>
+      <c r="AI66" s="29"/>
     </row>
     <row r="67" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA67" s="16" t="s">
@@ -9305,14 +9266,16 @@
       </c>
       <c r="AC67" s="16"/>
       <c r="AD67" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>108.95000000823185</v>
       </c>
       <c r="AF67">
         <f>AD68+AF61*AD3</f>
         <v>190.72000003292737</v>
       </c>
-      <c r="AI67" s="9"/>
+      <c r="AI67" s="30" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="68" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA68" s="22" t="s">
@@ -9329,7 +9292,10 @@
       <c r="AF68" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="AI68" s="8"/>
+      <c r="AI68" s="29">
+        <f>AI48*EXP(-AI65*AJ48)+AI49*EXP(-AI65*AJ49)+AI50*EXP(-AI65*AJ50)+AI51*EXP(-AI65*AJ51)+AI52*EXP(-AI65*AJ52)+AI53*EXP(-AI65*AJ53)+AI54*EXP(-AI65*AJ54)+AI55*EXP(-AI65*AJ55)+AI56*EXP(-AI65*AJ56)+AI57*EXP(-AI65*AJ57)+AI58*EXP(-AI65*AJ58)+AI59*EXP(-AI65*AJ59)+AI60*EXP(-AI65*AJ60)</f>
+        <v>28.611767859949396</v>
+      </c>
     </row>
     <row r="69" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA69" s="21" t="s">
